--- a/medicine/Psychotrope/Soave_(vin)/Soave_(vin).xlsx
+++ b/medicine/Psychotrope/Soave_(vin)/Soave_(vin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Il Soave est un vin italien de la région Vénétie doté d'une appellation DOC depuis le 21 août 1968. Seuls ont droit à la DOC les vins blancs récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Vérone dans les communes Soave, Monteforte d'Alpone, San Martino Buon Albergo, Lavagno, Mezzane di Sotto, Caldiero, Colognola ai Colli, Illasi, Cazzano di Tramigna, Roncà, Montecchia di Crosara et San Giovanni Ilarione.
 La zone de production se trouve au nord de l'autoroute qui relie Vérone et Venise.
@@ -545,7 +559,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Couleur : jaune paille clair
 Odeur : vineuse, délicate, parfumée
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,7 +623,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Quiche courgette et gorgonzola
 </t>
@@ -636,7 +656,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Province, saison, volume en hectolitres :.
 Verona  (1990/91)  372 622,08
